--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="18450" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Вопросы</t>
   </si>
@@ -29,12 +29,6 @@
   </si>
   <si>
     <t>Риск</t>
-  </si>
-  <si>
-    <t>Фактор</t>
-  </si>
-  <si>
-    <t>Последствия</t>
   </si>
   <si>
     <t>Какие сигналы необходимо подавать при взрывных работах?</t>
@@ -55,26 +49,45 @@
 Отбой (один короткий).</t>
   </si>
   <si>
-    <t>Взрыв, пожар, ожоги 3 и 4 степени тяжести</t>
-  </si>
-  <si>
     <t>Омертвление кожи, мышц, сухожилий, костей с образованием струпа, обугливание.</t>
   </si>
   <si>
-    <t>Специальность</t>
-  </si>
-  <si>
-    <t>Номер</t>
+    <t>комментарй</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Поражающий фактор. Последствия</t>
+  </si>
+  <si>
+    <t>Опасно некомпетентен</t>
+  </si>
+  <si>
+    <t>Компетентен</t>
+  </si>
+  <si>
+    <t>Очень высокий</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - ГРОЗ - Проверка знаний</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -89,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,21 +126,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -144,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -155,11 +153,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,197 +469,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="17" width="9.140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="16" width="9.140625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>229</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1">
-        <v>2</v>
-      </c>
-      <c r="O3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="D4" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E4" s="2">
         <v>25</v>
       </c>
-      <c r="F4" s="2">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2">
+        <v>25</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
-        <v>229</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2">
-        <v>8</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="D7" s="2" t="s">
-        <v>10</v>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E7" s="2">
         <v>25</v>
       </c>
-      <c r="F7" s="2">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>12</v>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2">
+        <v>25</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Вопросы</t>
   </si>
@@ -70,7 +70,10 @@
     <t>Очень высокий</t>
   </si>
   <si>
-    <t xml:space="preserve"> - ГРОЗ - Проверка знаний</t>
+    <t>Hello world - ГРОЗ - Проверка знаний</t>
+  </si>
+  <si>
+    <t>Существенный</t>
   </si>
 </sst>
 </file>
@@ -472,7 +475,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,8 +483,8 @@
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" style="7" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1" customWidth="1"/>
@@ -501,7 +504,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -512,10 +515,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>4</v>
@@ -534,11 +537,11 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="2"/>
@@ -547,11 +550,11 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="6">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="E4" s="2">
-        <v>25</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>15</v>
@@ -564,11 +567,11 @@
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="6">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" s="2">
-        <v>25</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>15</v>
@@ -587,11 +590,11 @@
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="2"/>
@@ -600,14 +603,14 @@
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2">
-        <v>25</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>9</v>
@@ -617,14 +620,14 @@
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="6">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="2">
-        <v>25</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>9</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="18">
   <si>
     <t>Вопросы</t>
   </si>
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +504,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -630,6 +630,324 @@
         <v>17</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6">
+        <v>9</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6">
+        <v>16</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="6">
+        <v>16</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6">
+        <v>25</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="6">
+        <v>25</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6">
+        <v>4</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="6">
+        <v>25</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="6">
+        <v>25</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>9</v>
       </c>
     </row>
